--- a/CVX_Kenya/my_graphs/Production Change.xlsx
+++ b/CVX_Kenya/my_graphs/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.29483369551599</v>
+        <v>6.428615036886185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0005966205208096653</v>
+        <v>1.179444761626655</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-2.65279768477194</v>
+        <v>72.19119401741773</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-1.616828121990693</v>
+        <v>0.001212478087836644</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.001493057512561791</v>
+        <v>6800.642091352325</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-0.03919737064279616</v>
+        <v>225.860721036559</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-2.288692418427672</v>
+        <v>12.55734109721379</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-1.657002884538088</v>
+        <v>0.04257072621840052</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.9812988818157464</v>
+        <v>93.12300139479339</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.03165692983020563</v>
+        <v>0.6570096939249197</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-1.451427668333054</v>
+        <v>22.64693908020854</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-0.7710463891271502</v>
+        <v>2.526329814456403</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-74.98937155873864</v>
+        <v>0.01740844821324572</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-2.419164398917928</v>
+        <v>5440.07830106176</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-0.4808939004769854</v>
+        <v>0.0003606278914958239</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-0.3902365583926439</v>
+        <v>66.62428904755507</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.007818567217327654</v>
+        <v>45.05167570587946</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-0.4390963484474923</v>
+        <v>2.40918464056449</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-0.4689986088287696</v>
+        <v>0.01204602731013438</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>-0.03165692983020563</v>
+        <v>0.6570096939249197</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.344290333800018</v>
+        <v>22.16662792675197</v>
       </c>
       <c r="C22">
         <v>0</v>

--- a/CVX_Kenya/my_graphs/Production Change.xlsx
+++ b/CVX_Kenya/my_graphs/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.428615036886185</v>
+        <v>0.3935852898284793</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.179444761626655</v>
+        <v>4.287163273664191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>72.19119401741773</v>
+        <v>0.4323597566690296</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.001212478087836644</v>
+        <v>9.256686826120131E-05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6800.642091352325</v>
+        <v>0.0264850159510388</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>225.860721036559</v>
+        <v>11.48463171196636</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.55734109721379</v>
+        <v>13.27474699256709</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04257072621840052</v>
+        <v>0.003764186956686899</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>93.12300139479339</v>
+        <v>101.8128956605215</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6570096939249197</v>
+        <v>3.053622523439117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>22.64693908020854</v>
+        <v>6.182723751291633</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.526329814456403</v>
+        <v>0.3130431363824755</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.01740844821324572</v>
+        <v>0.0002169270592276007</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>5440.07830106176</v>
+        <v>2.325115952291526</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.0003606278914958239</v>
+        <v>2.753220360318664E-05</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>66.62428904755507</v>
+        <v>83.84083619923331</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>45.05167570587946</v>
+        <v>2.290800724935252</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2.40918464056449</v>
+        <v>2.546822318079649</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01204602731013438</v>
+        <v>0.001065450778696686</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.6570096939249197</v>
+        <v>3.053622523439117</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>22.16662792675197</v>
+        <v>6.007457283325493</v>
       </c>
       <c r="C22">
         <v>0</v>

--- a/CVX_Kenya/my_graphs/Production Change.xlsx
+++ b/CVX_Kenya/my_graphs/Production Change.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\my_graphs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F9B1B-899F-4580-AC0D-676078E0684D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Activities</t>
   </si>
@@ -83,13 +89,16 @@
   </si>
   <si>
     <t>SERVICES</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +161,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +247,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +299,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,250 +492,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0.3935852898284793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+        <v>0.39358528982847929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>4.287163273664191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+        <v>4.2871632736641914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>0.4323597566690296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+        <v>0.43235975666902959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>9.256686826120131E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+        <v>9.2566868261201307E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>0.0264850159510388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+        <v>2.64850159510388E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
       </c>
       <c r="C7">
         <v>11.48463171196636</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
       </c>
       <c r="C8">
         <v>13.27474699256709</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>0.003764186956686899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+        <v>3.7641869566868991E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>101.8128956605215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+        <v>101.81289566052151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>3.053622523439117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+        <v>3.0536225234391172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>6.182723751291633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+        <v>6.1827237512916327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.3130431363824755</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>0.0002169270592276007</v>
-      </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+        <v>2.1692705922760069E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>2.325115952291526</v>
-      </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+        <v>2.3251159522915259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>2.753220360318664E-05</v>
-      </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+        <v>2.7532203603186641E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>83.84083619923331</v>
-      </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+        <v>83.840836199233308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>2.290800724935252</v>
-      </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+        <v>2.2908007249352522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2.546822318079649</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>0.001065450778696686</v>
-      </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+        <v>1.065450778696686E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>3.053622523439117</v>
-      </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+        <v>3.0536225234391172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>6.007457283325493</v>
-      </c>
       <c r="C22">
-        <v>0</v>
+        <v>6.0074572833254933</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/my_graphs/Production Change.xlsx
+++ b/CVX_Kenya/my_graphs/Production Change.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\my_graphs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F9B1B-899F-4580-AC0D-676078E0684D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Activities</t>
   </si>
@@ -89,16 +83,13 @@
   </si>
   <si>
     <t>SERVICES</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,14 +152,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -215,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,27 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,24 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,249 +439,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>0.39358528982847929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>0.3949318160302937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>4.2871632736641914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>4.288041912892368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>0.43235975666902959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>0.4451924181776121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>9.2566868261201307E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>9.342378325527534E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>2.64850159510388E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>0.02654030709527433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>11.48463171196636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>11.52071759011596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>13.27474699256709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>13.2772385122953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>3.7641869566868991E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>0.003777122419705847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>101.81289566052151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>101.8399124066345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>3.0536225234391172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>3.055644492444117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>6.1827237512916327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>6.288031842559576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>0.3140585145447403</v>
+      </c>
       <c r="C13">
-        <v>0.3130431363824755</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>0.0002192661340814084</v>
+      </c>
       <c r="C14">
-        <v>2.1692705922760069E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>2.325460670748726</v>
+      </c>
       <c r="C15">
-        <v>2.3251159522915259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B16">
+        <v>2.778707494144328E-05</v>
+      </c>
       <c r="C16">
-        <v>2.7532203603186641E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>83.85933579457924</v>
+      </c>
       <c r="C17">
-        <v>83.840836199233308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B18">
+        <v>2.297998653288232</v>
+      </c>
       <c r="C18">
-        <v>2.2908007249352522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B19">
+        <v>2.547300327758421</v>
+      </c>
       <c r="C19">
-        <v>2.546822318079649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B20">
+        <v>0.001069111887773033</v>
+      </c>
       <c r="C20">
-        <v>1.065450778696686E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B21">
+        <v>3.055644492458669</v>
+      </c>
       <c r="C21">
-        <v>3.0536225234391172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B22">
+        <v>6.402815100736916</v>
+      </c>
       <c r="C22">
-        <v>6.0074572833254933</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/my_graphs/Production Change.xlsx
+++ b/CVX_Kenya/my_graphs/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3949318160302937</v>
+        <v>3.710573978876304</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.288041912892368</v>
+        <v>40.28821203174198</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4451924181776121</v>
+        <v>4.18279646113939</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.342378325527534E-05</v>
+        <v>0.0008777612870992743</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02654030709527433</v>
+        <v>0.249358924507508</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.52071759011596</v>
+        <v>108.2426717035827</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.2772385122953</v>
+        <v>124.7460288975002</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.003777122419705847</v>
+        <v>0.03548787815189789</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>101.8399124066345</v>
+        <v>956.8348602182866</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.055644492444117</v>
+        <v>28.70924671586885</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.288031842559576</v>
+        <v>59.07907741613164</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.3140585145447403</v>
+        <v>2.950730492234817</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.0002192661340814084</v>
+        <v>0.002060110577439191</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.325460670748726</v>
+        <v>21.84881922280623</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.778707494144328E-05</v>
+        <v>0.0002610729068708315</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>83.85933579457924</v>
+        <v>787.8987122712533</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.297998653288232</v>
+        <v>21.59080038699652</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2.547300327758421</v>
+        <v>23.93310928344769</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.001069111887773033</v>
+        <v>0.01004481935933378</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3.055644492458669</v>
+        <v>28.70924671600557</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6.402815100736916</v>
+        <v>60.15752122267168</v>
       </c>
       <c r="C22">
         <v>0</v>
